--- a/ActivationFunctions/PLU.xlsx
+++ b/ActivationFunctions/PLU.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NeuralNetwork\ActivationFunctions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180FC0F-8CD2-4E93-9309-8FB4E7FD22BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +108,25 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -251,139 +269,146 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>1.9</c:v>
+                  <c:v>0.95499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.85</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8</c:v>
+                  <c:v>0.94499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.75</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>0.93499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.65</c:v>
+                  <c:v>0.92999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6</c:v>
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.55</c:v>
+                  <c:v>0.91999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5</c:v>
+                  <c:v>0.91500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4500000000000002</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.35</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.25</c:v>
+                  <c:v>0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.05</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.05</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.1499999999999999</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.2000000000000002</c:v>
+                  <c:v>-0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.25</c:v>
+                  <c:v>-0.70000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.3</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.35</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.4</c:v>
+                  <c:v>-0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.4500000000000002</c:v>
+                  <c:v>-0.91</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.5</c:v>
+                  <c:v>-0.91500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.55</c:v>
+                  <c:v>-0.91999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.6</c:v>
+                  <c:v>-0.92500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.65</c:v>
+                  <c:v>-0.92999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.7000000000000002</c:v>
+                  <c:v>-0.93499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.75</c:v>
+                  <c:v>-0.94</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.8</c:v>
+                  <c:v>-0.94499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.85</c:v>
+                  <c:v>-0.95</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.9</c:v>
+                  <c:v>-0.95499999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D5EB-48BF-B251-7B5A87969450}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="134736128"/>
         <c:axId val="134746112"/>
       </c:scatterChart>
@@ -392,8 +417,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="134746112"/>
         <c:crosses val="autoZero"/>
@@ -404,9 +432,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="134736128"/>
         <c:crosses val="autoZero"/>
@@ -415,6 +446,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -425,14 +457,25 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -599,139 +642,146 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E976-40DA-A889-B1474854642F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="135661824"/>
         <c:axId val="135680000"/>
       </c:scatterChart>
@@ -740,6 +790,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -757,6 +808,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -800,6 +852,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -817,6 +870,7 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -865,13 +919,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -906,562 +961,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1482,7 +981,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1017,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,9 +1039,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1580,7 +1079,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1614,6 +1113,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1648,9 +1148,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1823,309 +1324,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
       <c r="B1">
         <f>SIGN(A1)*MIN($E$1*ABS(A1), ($E$2*ABS(A1))+$E$6)</f>
-        <v>1.9</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="C1">
         <f xml:space="preserve"> IF(ABS(A1)&gt;$E$5, $E$2, $E$1)</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9.5</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B41" si="0">SIGN(A2)*MIN($E$1*ABS(A2), ($E$2*ABS(A2))+$E$6)</f>
-        <v>1.85</v>
+        <v>0.95</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C41" si="1" xml:space="preserve"> IF(ABS(A2)&gt;$E$5, $E$2, $E$1)</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8.5</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>0.94</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
+        <v>0.93499999999999994</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5">
         <f>E3/E1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1.65</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E6">
         <f>E3*(1-(E2/E1))</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.5</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1.55</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.5</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1.4500000000000002</v>
+        <v>0.91</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.5</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>0.9</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.5</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.5</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.5</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.5</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2135,267 +1636,267 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.5</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1</v>
       </c>
       <c r="B23">
         <f>SIGN(A23)*MIN($E$1*ABS(A23), ($E$2*ABS(A23))+$E$6)</f>
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.5</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>-1.05</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>-1.1000000000000001</v>
+        <v>-0.4</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-2.5</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>-1.1499999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>-1.2000000000000002</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.5</v>
       </c>
       <c r="B28">
         <f>SIGN(A28)*MIN($E$1*ABS(A28), ($E$2*ABS(A28))+$E$6)</f>
-        <v>-1.25</v>
+        <v>-0.70000000000000007</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-4</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-4.5</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>-1.35</v>
+        <v>-0.9</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>-1.4</v>
+        <v>-0.90500000000000003</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-5.5</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>-1.4500000000000002</v>
+        <v>-0.91</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-6</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
+        <v>-0.91500000000000004</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-6.5</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>-1.55</v>
+        <v>-0.91999999999999993</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-7</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>-1.6</v>
+        <v>-0.92500000000000004</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-7.5</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>-1.65</v>
+        <v>-0.92999999999999994</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-8</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>-1.7000000000000002</v>
+        <v>-0.93499999999999994</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-8.5</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>-1.75</v>
+        <v>-0.94</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-9</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>-1.8</v>
+        <v>-0.94499999999999995</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-9.5</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>-1.85</v>
+        <v>-0.95</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-10</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>-1.9</v>
+        <v>-0.95499999999999996</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -2405,24 +1906,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ActivationFunctions/PLU.xlsx
+++ b/ActivationFunctions/PLU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NeuralNetwork\ActivationFunctions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180FC0F-8CD2-4E93-9309-8FB4E7FD22BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD042DB7-1E9C-4134-BEEF-C90258440BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3990" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -269,127 +269,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.95499999999999996</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95</c:v>
+                  <c:v>1.085</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94499999999999995</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94</c:v>
+                  <c:v>1.075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93499999999999994</c:v>
+                  <c:v>1.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92999999999999994</c:v>
+                  <c:v>1.0649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92500000000000004</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91999999999999993</c:v>
+                  <c:v>1.0549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91500000000000004</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91</c:v>
+                  <c:v>1.0449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90500000000000003</c:v>
+                  <c:v>1.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9</c:v>
+                  <c:v>1.0349999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.70000000000000007</c:v>
+                  <c:v>1.0249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1.0149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.30000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.1</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.2</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.30000000000000004</c:v>
+                  <c:v>-1.0049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.4</c:v>
+                  <c:v>-1.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.5</c:v>
+                  <c:v>-1.0149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.60000000000000009</c:v>
+                  <c:v>-1.02</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.70000000000000007</c:v>
+                  <c:v>-1.0249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.8</c:v>
+                  <c:v>-1.03</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.9</c:v>
+                  <c:v>-1.0349999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.90500000000000003</c:v>
+                  <c:v>-1.04</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.91</c:v>
+                  <c:v>-1.0449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.91500000000000004</c:v>
+                  <c:v>-1.05</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.91999999999999993</c:v>
+                  <c:v>-1.0549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.92500000000000004</c:v>
+                  <c:v>-1.06</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.92999999999999994</c:v>
+                  <c:v>-1.0649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.93499999999999994</c:v>
+                  <c:v>-1.07</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.94</c:v>
+                  <c:v>-1.075</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.94499999999999995</c:v>
+                  <c:v>-1.08</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.95</c:v>
+                  <c:v>-1.085</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.95499999999999996</c:v>
+                  <c:v>-1.0900000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,61 +675,61 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.01</c:v>
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B1">
         <f>SIGN(A1)*MIN($E$1*ABS(A1), ($E$2*ABS(A1))+$E$6)</f>
-        <v>0.95499999999999996</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C1">
         <f xml:space="preserve"> IF(ABS(A1)&gt;$E$5, $E$2, $E$1)</f>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B41" si="0">SIGN(A2)*MIN($E$1*ABS(A2), ($E$2*ABS(A2))+$E$6)</f>
-        <v>0.95</v>
+        <v>1.085</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C41" si="1" xml:space="preserve"> IF(ABS(A2)&gt;$E$5, $E$2, $E$1)</f>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
+        <v>1.08</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
@@ -1387,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0.94</v>
+        <v>1.075</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.93499999999999994</v>
+        <v>1.07</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="E5">
         <f>E3/E1</f>
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.92999999999999994</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="E6">
         <f>E3*(1-(E2/E1))</f>
-        <v>0.85499999999999998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.92500000000000004</v>
+        <v>1.06</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.91999999999999993</v>
+        <v>1.0549999999999999</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0.91</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0.90500000000000003</v>
+        <v>1.04</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -1515,11 +1515,11 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,11 +1541,11 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1554,11 +1554,11 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,11 +1567,11 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,11 +1580,11 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>1.01</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,11 +1593,11 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,11 +1606,11 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,11 +1619,11 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,11 +1645,11 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,11 +1658,11 @@
       </c>
       <c r="B23">
         <f>SIGN(A23)*MIN($E$1*ABS(A23), ($E$2*ABS(A23))+$E$6)</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1671,11 +1671,11 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>-0.30000000000000004</v>
+        <v>-1.0049999999999999</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>-0.4</v>
+        <v>-1.01</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,11 +1697,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-1.0149999999999999</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1710,11 +1710,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>-0.60000000000000009</v>
+        <v>-1.02</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1723,11 +1723,11 @@
       </c>
       <c r="B28">
         <f>SIGN(A28)*MIN($E$1*ABS(A28), ($E$2*ABS(A28))+$E$6)</f>
-        <v>-0.70000000000000007</v>
+        <v>-1.0249999999999999</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,11 +1736,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>-0.8</v>
+        <v>-1.03</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,11 +1749,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>-0.9</v>
+        <v>-1.0349999999999999</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>-0.90500000000000003</v>
+        <v>-1.04</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>-0.91</v>
+        <v>-1.0449999999999999</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>-0.91500000000000004</v>
+        <v>-1.05</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>-0.91999999999999993</v>
+        <v>-1.0549999999999999</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>-0.92500000000000004</v>
+        <v>-1.06</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>-0.92999999999999994</v>
+        <v>-1.0649999999999999</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>-0.93499999999999994</v>
+        <v>-1.07</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>-0.94</v>
+        <v>-1.075</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>-0.94499999999999995</v>
+        <v>-1.08</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>-0.95</v>
+        <v>-1.085</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>-0.95499999999999996</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>

--- a/ActivationFunctions/PLU.xlsx
+++ b/ActivationFunctions/PLU.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\NeuralNetwork\ActivationFunctions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD042DB7-1E9C-4134-BEEF-C90258440BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3990" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="3270" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -55,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,28 +102,20 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="1"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$1:$A$41</c:f>
@@ -394,88 +380,66 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D5EB-48BF-B251-7B5A87969450}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="134736128"/>
-        <c:axId val="134746112"/>
+        <c:dLbls/>
+        <c:axId val="132573440"/>
+        <c:axId val="132583424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134736128"/>
+        <c:axId val="132573440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="-7"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134746112"/>
+        <c:crossAx val="132583424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134746112"/>
+        <c:axId val="132583424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.25"/>
+          <c:min val="-1.25"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134736128"/>
+        <c:crossAx val="132573440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -768,29 +732,21 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E976-40DA-A889-B1474854642F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="135661824"/>
-        <c:axId val="135680000"/>
+        <c:dLbls/>
+        <c:axId val="133638016"/>
+        <c:axId val="133639552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135661824"/>
+        <c:axId val="133638016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -808,7 +764,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -843,16 +798,15 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135680000"/>
+        <c:crossAx val="133639552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135680000"/>
+        <c:axId val="133639552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -870,7 +824,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -905,7 +858,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135661824"/>
+        <c:crossAx val="133638016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -919,14 +872,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -955,7 +907,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -965,23 +917,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1017,7 +969,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA32D702-2265-5F56-A7D0-6E69599400F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1039,9 +991,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1079,7 +1031,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1113,7 +1065,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1148,10 +1099,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1324,16 +1274,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>10</v>
       </c>
@@ -1352,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>9.5</v>
       </c>
@@ -1371,7 +1321,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1390,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>8.5</v>
       </c>
@@ -1404,7 +1354,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1424,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>7.5</v>
       </c>
@@ -1444,7 +1394,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1457,7 +1407,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6.5</v>
       </c>
@@ -1470,7 +1420,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1483,7 +1433,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>5.5</v>
       </c>
@@ -1496,7 +1446,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1509,7 +1459,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>4.5</v>
       </c>
@@ -1522,7 +1472,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1535,7 +1485,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>3.5</v>
       </c>
@@ -1548,7 +1498,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1561,7 +1511,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2.5</v>
       </c>
@@ -1574,7 +1524,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1587,7 +1537,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1.5</v>
       </c>
@@ -1600,7 +1550,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1613,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>0.5</v>
       </c>
@@ -1626,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1639,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>-0.5</v>
       </c>
@@ -1652,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>-1</v>
       </c>
@@ -1665,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>-1.5</v>
       </c>
@@ -1678,7 +1628,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -1691,7 +1641,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>-2.5</v>
       </c>
@@ -1704,7 +1654,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>-3</v>
       </c>
@@ -1717,7 +1667,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>-3.5</v>
       </c>
@@ -1730,7 +1680,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>-4</v>
       </c>
@@ -1743,7 +1693,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>-4.5</v>
       </c>
@@ -1756,7 +1706,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -1769,7 +1719,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>-5.5</v>
       </c>
@@ -1782,7 +1732,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>-6</v>
       </c>
@@ -1795,7 +1745,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>-6.5</v>
       </c>
@@ -1808,7 +1758,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>-7</v>
       </c>
@@ -1821,7 +1771,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>-7.5</v>
       </c>
@@ -1834,7 +1784,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>-8</v>
       </c>
@@ -1847,7 +1797,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>-8.5</v>
       </c>
@@ -1860,7 +1810,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>-9</v>
       </c>
@@ -1873,7 +1823,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>-9.5</v>
       </c>
@@ -1886,7 +1836,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>-10</v>
       </c>
@@ -1906,24 +1856,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
